--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -1,43 +1,445 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve"> 店铺名称</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>总天</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>清江饭店</t>
+  </si>
+  <si>
+    <t>长江路</t>
+  </si>
+  <si>
+    <t>积分饭店</t>
+  </si>
+  <si>
+    <t>海河路</t>
+  </si>
+  <si>
+    <t>份额文件发我饭店</t>
+  </si>
+  <si>
+    <t>泰山路</t>
+  </si>
+  <si>
+    <t>三只羊饭店</t>
+  </si>
+  <si>
+    <t>林三路</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +448,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,136 +1053,107 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 店铺名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>地址</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>总天</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>剩余</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>开始时间</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>清江饭店</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>长江路</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>20250704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20250704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>20250704</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>积分饭店</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>海河路</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20250704</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>份额文件发我饭店</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>泰山路</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20250704</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>三只羊饭店</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>林三路</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>20250704</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -1,43 +1,564 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+  <si>
+    <t xml:space="preserve"> 店铺名称</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>总天</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>南四湖</t>
+  </si>
+  <si>
+    <t>西苇路</t>
+  </si>
+  <si>
+    <t>大桶2个</t>
+  </si>
+  <si>
+    <t>铭阳饭店</t>
+  </si>
+  <si>
+    <t>大桶1个</t>
+  </si>
+  <si>
+    <t>鱼羊特色菜</t>
+  </si>
+  <si>
+    <t>一桌鲜大陷水饺</t>
+  </si>
+  <si>
+    <t>小桶1个</t>
+  </si>
+  <si>
+    <t>和谐面馆</t>
+  </si>
+  <si>
+    <t>民泰路</t>
+  </si>
+  <si>
+    <t>利源嘉宴</t>
+  </si>
+  <si>
+    <t>巧媳妇水饺城</t>
+  </si>
+  <si>
+    <t>欧兰路</t>
+  </si>
+  <si>
+    <t>湖上渔村</t>
+  </si>
+  <si>
+    <t>郝大妈饺子</t>
+  </si>
+  <si>
+    <t>金陵私房菜</t>
+  </si>
+  <si>
+    <t>三人行水饺馆</t>
+  </si>
+  <si>
+    <t>东城大排档</t>
+  </si>
+  <si>
+    <t>贤友聚</t>
+  </si>
+  <si>
+    <t>正院</t>
+  </si>
+  <si>
+    <t>梓轩美食城</t>
+  </si>
+  <si>
+    <t>唐王河路（小湖美食城）</t>
+  </si>
+  <si>
+    <t>香辣诱惑</t>
+  </si>
+  <si>
+    <t>东滩路</t>
+  </si>
+  <si>
+    <t>聚满源地锅鸡</t>
+  </si>
+  <si>
+    <t>峄山南路</t>
+  </si>
+  <si>
+    <t>鑫和源老味食府</t>
+  </si>
+  <si>
+    <t>龙泉菜馆</t>
+  </si>
+  <si>
+    <t>礼让路</t>
+  </si>
+  <si>
+    <t>锦聚源家常菜</t>
+  </si>
+  <si>
+    <t>仲记麻辣猪蹄</t>
+  </si>
+  <si>
+    <t>聚顺源</t>
+  </si>
+  <si>
+    <t>崇义路</t>
+  </si>
+  <si>
+    <t>老街疙瘩汤</t>
+  </si>
+  <si>
+    <t>老胡刀削面</t>
+  </si>
+  <si>
+    <t>义和路</t>
+  </si>
+  <si>
+    <t>平阳西路</t>
+  </si>
+  <si>
+    <t>阳光圣城怡宁幼儿院</t>
+  </si>
+  <si>
+    <t>子思路</t>
+  </si>
+  <si>
+    <t>老六炒鸡</t>
+  </si>
+  <si>
+    <t>唐王山路</t>
+  </si>
+  <si>
+    <t>味道小厨大排档</t>
+  </si>
+  <si>
+    <t>老表小酒馆</t>
+  </si>
+  <si>
+    <t>喜麟雅特色餐厅</t>
+  </si>
+  <si>
+    <t>礼乐路</t>
+  </si>
+  <si>
+    <t>聚乡客私房菜</t>
+  </si>
+  <si>
+    <t>梅苑</t>
+  </si>
+  <si>
+    <t>原宪路</t>
+  </si>
+  <si>
+    <t>学府美食城</t>
+  </si>
+  <si>
+    <t>盛源家常菜</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +567,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,136 +1172,735 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="9.375"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 店铺名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>地址</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>总天</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>剩余</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>开始时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>清江饭店</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>长江路</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20250705</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>积分饭店</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>海河路</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>20250903</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>20250903</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>20250903</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>20250903</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
-        <v>20250705</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>份额文件发我饭店</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>泰山路</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>20250904</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>20250704</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>三只羊饭店</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>林三路</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="E7">
+        <v>20250904</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>20250904</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>20250905</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>20250905</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20250704</v>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>20250905</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>20250905</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>20250905</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>20250906</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>20250906</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>20250906</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>20250906</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>20250909</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>20250909</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>20250909</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>20250909</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>20250909</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>20250903</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>20250903</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>20250903</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>20250903</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>20250903</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>20250910</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>20250910</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>20250910</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>20250910</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>20250910</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>20250910</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>20250910</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>20250910</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,10 +498,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -635,19 +635,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>20250923</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>大桶1个</t>
-        </is>
-      </c>
+        <v>20250926</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>小桶1个</t>
@@ -673,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -704,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -735,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -766,16 +762,12 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>20250923</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>大桶1个</t>
-        </is>
-      </c>
+        <v>20250926</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>小桶1个</t>
@@ -801,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -829,19 +821,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>20250923</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>大桶1个</t>
-        </is>
-      </c>
+        <v>20250926</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>小桶1个</t>
@@ -867,10 +855,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -902,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -937,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>20250928</v>
+        <v>20250926</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -972,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20250928</v>
@@ -1003,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>20250928</v>
+        <v>20250925</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1034,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1065,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1096,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1127,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1158,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>20250928</v>
+        <v>20250925</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1220,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>20250928</v>
+        <v>20250925</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1251,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>20250928</v>
+        <v>20250921</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1282,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>20250928</v>
+        <v>20250925</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1313,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20250923</v>
@@ -1348,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1379,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1410,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1441,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1472,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1503,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1534,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1569,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20250919</v>
+        <v>20250929</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1600,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>20250921</v>
@@ -1631,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20250921</v>
@@ -1662,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20250921</v>
@@ -1693,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20250921</v>
@@ -1731,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1762,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1790,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20250921</v>
@@ -1818,13 +1806,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>20250928</v>
+        <v>20250921</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1855,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1883,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>20250923</v>
+        <v>20250925</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1911,13 +1899,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20250923</v>
+        <v>20250929</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1949,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20250923</v>
@@ -1983,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -2011,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20250922</v>
+        <v>20250929</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2042,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>20250928</v>
+        <v>20250924</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2073,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>20250928</v>
+        <v>20250924</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2104,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>20250928</v>
+        <v>20250924</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2135,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>20250928</v>
+        <v>20250924</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2166,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>20250928</v>
+        <v>20250924</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2197,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>20250928</v>
+        <v>20250924</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2225,13 +2213,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>20250923</v>
+        <v>20250924</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2259,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>20250928</v>
+        <v>20250924</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2287,13 +2275,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>20250924</v>
+        <v>20250928</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2321,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20250928</v>
@@ -2352,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20250928</v>
@@ -2383,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20250924</v>
+        <v>20250929</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2414,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20250928</v>
@@ -2445,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20250928</v>
@@ -2476,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20250928</v>
@@ -2507,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20250928</v>
@@ -2535,13 +2523,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2566,13 +2554,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2603,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2634,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20250928</v>
+        <v>20250929</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2662,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20250920</v>
@@ -2693,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20250920</v>
@@ -2724,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20250920</v>
@@ -2755,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20250920</v>
@@ -2786,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20250920</v>
@@ -2817,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20250920</v>
@@ -2848,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20250920</v>
@@ -2879,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20250921</v>
@@ -2910,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20250921</v>
@@ -2941,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20250921</v>
@@ -2953,6 +2941,436 @@
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>周广平特色</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大湖大街</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>大桶1个</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>食惠坊</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大湖大街</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>小桶1个</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>味满堂</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大湖大街</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>小桶1个</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>社区家常菜</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大湖大街</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>小桶1个</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>淮扬面馆</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>崇义路</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>大桶1个</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>金陵水饺城</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平阳东路</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>小桶1个</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>大路全羊</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>崇义路</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>大桶1个</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>范大碗</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平阳路</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20250924</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>大桶4个</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>微渔坊</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>峄山路</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20250927</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>小桶2个</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>澳龙特色餐厅</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>崇义路</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20250927</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>小桶4个</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>福源酒家</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>峄山路</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20250928</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>小桶2个</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>九道菜</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>峄山路</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20250928</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>大桶1个</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>百大生态园</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>峄山路</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20250928</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>大桶5个</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>顺合庭私厨大湖大街</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>20250923</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>大桶2个</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20250926</v>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20250926</v>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20250926</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20250926</v>
@@ -638,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20250926</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20250926</v>
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20250926</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20250926</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20250926</v>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20250926</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20250926</v>
@@ -855,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20250926</v>
@@ -890,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20250926</v>
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20250926</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20250928</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20250925</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20250929</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20250929</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20250929</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20250929</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20250929</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20250925</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20250925</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20250921</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20250925</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20250923</v>
+        <v>20250930</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20250929</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20250929</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20250929</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20250929</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20250929</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20250929</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20250929</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20250929</v>
@@ -1588,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>20250921</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20250921</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20250921</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20250921</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20250929</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20250929</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20250921</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20250921</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20250929</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20250925</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20250929</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20250923</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20250929</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20250929</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20250924</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20250924</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20250924</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20250924</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20250924</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20250924</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20250924</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20250924</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20250928</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20250928</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20250928</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20250929</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20250928</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20250928</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20250928</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20250928</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20250929</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20250929</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20250929</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20250929</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20250920</v>
+        <v>20250930</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20250920</v>
+        <v>20250930</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20250920</v>
+        <v>20250930</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20250920</v>
+        <v>20250930</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20250920</v>
+        <v>20250930</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20250920</v>
+        <v>20250930</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20250920</v>
+        <v>20250930</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20250921</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20250921</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20250921</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20250923</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20250923</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20250923</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20250923</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20250923</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20250923</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20250923</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20250924</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20250927</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20250927</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20250928</v>
@@ -3301,7 +3301,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20250928</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20250928</v>
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20250923</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251006</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20250930</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20250929</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20250929</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20250929</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20250929</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20250930</v>
+        <v>20251007</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20250929</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20250929</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20250929</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20250929</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20250929</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20250929</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20250929</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20250929</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20250929</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20250929</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20250929</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251006</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251006</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20250929</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251006</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251006</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20250929</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251006</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20250930</v>
+        <v>20251007</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251004</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251004</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251004</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251004</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251004</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251004</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251004</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251004</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20250928</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20250928</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20250928</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20250930</v>
+        <v>20251007</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20250928</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20250928</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20250928</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20250929</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20250929</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20250929</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20250929</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20250929</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20250930</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20250930</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20250930</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20250930</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20250930</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20250930</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20250930</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251003</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251003</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251003</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251003</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251003</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251003</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251003</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251003</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251003</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251003</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251006</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251006</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251006</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251006</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251006</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251003</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251002</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251002</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251006</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20250930</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20250929</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20250929</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20250929</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20250929</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251007</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20250929</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20250929</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20250929</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20250929</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20250929</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20250929</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20250929</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20250929</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20250929</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20250929</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20250929</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251006</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251006</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20250929</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251006</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251006</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20250929</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251006</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251007</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251004</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251004</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251004</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251004</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251004</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251004</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251004</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251004</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20250928</v>
+        <v>20251008</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20250928</v>
+        <v>20251008</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20250928</v>
+        <v>20251008</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251007</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20250928</v>
+        <v>20251008</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20250928</v>
+        <v>20251008</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20250928</v>
+        <v>20251008</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20250929</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20250929</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20250929</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20250929</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20250929</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20250930</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20250930</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20250930</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20250930</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20250930</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20250930</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20250930</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251003</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251003</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251003</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251003</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251003</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251003</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251003</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251003</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251003</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251003</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251006</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251006</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251006</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251006</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251006</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251003</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251002</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251002</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251006</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20250930</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251007</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251006</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251006</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251006</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251006</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251006</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251007</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251004</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251004</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251004</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251004</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251004</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251004</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251004</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251004</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251007</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20250929</v>
+        <v>20251009</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20250930</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20250930</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20250930</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20250930</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20250930</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20250930</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20250930</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251003</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251003</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251003</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251003</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251003</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251003</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251003</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251003</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251003</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251003</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251006</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251006</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251006</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251006</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251006</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251003</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251002</v>
+        <v>20251009</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251002</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251006</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251007</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251006</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251006</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251006</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251006</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251006</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251007</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251004</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251004</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251004</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251004</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251004</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251004</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251004</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251004</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251007</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20250930</v>
+        <v>20251010</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251003</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251003</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251003</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251003</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251003</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251003</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251003</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251003</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251003</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251003</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251006</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251006</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251006</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251006</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251006</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251003</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251009</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251002</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251006</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251007</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251006</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251006</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251006</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251006</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251006</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251007</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251004</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251004</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251004</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251004</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251004</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251004</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251004</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251004</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251007</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251003</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251003</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251003</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251003</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251003</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251003</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251003</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251003</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251003</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251003</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251006</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251006</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251006</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251006</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251006</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251003</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251009</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251002</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251006</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251007</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251006</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251006</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251006</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251006</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251006</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251007</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251004</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251004</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251004</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251004</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251004</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251004</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251004</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251004</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251007</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251003</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251003</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251003</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251003</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251003</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251003</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251003</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251003</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251003</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251003</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251006</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251006</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251006</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251006</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251006</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251003</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251009</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251002</v>
+        <v>20251012</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251013</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251007</v>
+        <v>20251014</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251013</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251013</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251013</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251013</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251013</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251007</v>
+        <v>20251014</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251004</v>
+        <v>20251014</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251007</v>
+        <v>20251014</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251013</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251013</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251013</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251013</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251013</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251009</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251010</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251010</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251010</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251010</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251006</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251006</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251006</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251013</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251006</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251006</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251006</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251006</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251006</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251006</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251006</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251014</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251013</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251013</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251006</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251013</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251006</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251013</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251013</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251014</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251014</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251013</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251013</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251013</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251013</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251006</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251013</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251009</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251010</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251010</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251010</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251010</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251013</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251014</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251013</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251013</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251013</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251013</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251013</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251014</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251014</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251013</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251013</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251013</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251013</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251006</v>
+        <v>20251016</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251013</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251009</v>
+        <v>20251016</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251010</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251010</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251010</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251010</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251013</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251014</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251013</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251013</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251013</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251013</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251013</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251014</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251008</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251008</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251008</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251014</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251008</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251008</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251008</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251013</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251013</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251013</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251013</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251013</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251016</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251010</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251010</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251010</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251010</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251013</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251009</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251009</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251009</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251009</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251014</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251009</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251009</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251009</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251009</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251009</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251009</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251009</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251009</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251009</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251009</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251009</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251013</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251013</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251009</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251013</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251013</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251009</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251013</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251014</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251008</v>
+        <v>20251018</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251008</v>
+        <v>20251018</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251008</v>
+        <v>20251018</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251014</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251008</v>
+        <v>20251018</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251008</v>
+        <v>20251018</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251008</v>
+        <v>20251018</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251009</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251009</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251009</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251009</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251009</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251013</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251013</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251013</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251013</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251013</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251016</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251010</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251010</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251010</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251010</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>20251006</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>20251006</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>20251006</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>20251006</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>20251006</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251013</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>20251006</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>20251006</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>20251006</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>20251006</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251010</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251014</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251013</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251013</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251013</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251013</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251013</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251014</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251014</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251009</v>
+        <v>20251019</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251010</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251010</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251010</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251010</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251010</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251010</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251010</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251013</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251013</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251013</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251013</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251013</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251016</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251010</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251010</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251010</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251010</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20251006</v>
+        <v>20251020</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251014</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251014</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251014</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251013</v>
+        <v>20251020</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251016</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251010</v>
+        <v>20251020</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251020</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251014</v>
+        <v>20251021</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251020</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251020</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251020</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251020</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251020</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251014</v>
+        <v>20251021</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251014</v>
+        <v>20251021</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251020</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251020</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251020</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251020</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251020</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251016</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251012</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251020</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251021</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251020</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251020</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251020</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251020</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251020</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251021</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251021</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251013</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251013</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251013</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251013</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251013</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251013</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251013</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251013</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251013</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251013</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251020</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251020</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251020</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251020</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251020</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251013</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251016</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251012</v>
+        <v>20251022</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251020</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251021</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251020</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251020</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251020</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251020</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251020</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251021</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251014</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251014</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251014</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251014</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251014</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251014</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251014</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251014</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251021</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251020</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251020</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251020</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251020</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251020</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251013</v>
+        <v>20251023</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251016</v>
+        <v>20251023</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251020</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251021</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251020</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251020</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251020</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251020</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251020</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251021</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251014</v>
+        <v>20251024</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251021</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251020</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251020</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251020</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251020</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251020</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251023</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251016</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251016</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251016</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251020</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251016</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251016</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251016</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251016</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251016</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251016</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251016</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251021</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251020</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251020</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251016</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251020</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251016</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251020</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251020</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251021</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251021</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251020</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251020</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251020</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251020</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251016</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251020</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251023</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251020</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251021</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251020</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251020</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251020</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251020</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251020</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251021</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251021</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251020</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251020</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251020</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251020</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251016</v>
+        <v>20251026</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251020</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251023</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251021</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251021</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251018</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251018</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251018</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251021</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251018</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251018</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251018</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251020</v>
+        <v>20251027</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251023</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251027</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251019</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251019</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251019</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251019</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251021</v>
+        <v>20251028</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251019</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251019</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251019</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251019</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251019</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251019</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251019</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251019</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251019</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251019</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251019</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251027</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251027</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251019</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251027</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251027</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251019</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251027</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251021</v>
+        <v>20251028</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251018</v>
+        <v>20251028</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251018</v>
+        <v>20251028</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251018</v>
+        <v>20251028</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251021</v>
+        <v>20251028</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251018</v>
+        <v>20251028</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251018</v>
+        <v>20251028</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251018</v>
+        <v>20251028</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251019</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251019</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251019</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251019</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251019</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251027</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251027</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251027</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251027</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251027</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251023</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251027</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251020</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251028</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251027</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251027</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251027</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251027</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251027</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251028</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251028</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251019</v>
+        <v>20251029</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251020</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251020</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251020</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251020</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251020</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251020</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251020</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251027</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251027</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251027</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251027</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251027</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251023</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251020</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251020</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251020</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251020</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251027</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251028</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251027</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251027</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251027</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251027</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251027</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251028</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251028</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251027</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251027</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251027</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251027</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251027</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251023</v>
+        <v>20251030</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251020</v>
+        <v>20251030</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251027</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251028</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251027</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251027</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251027</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251027</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251027</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251028</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251028</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251027</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251027</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251027</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251027</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251027</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251030</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251022</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251027</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251028</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251027</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251027</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251027</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251027</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251027</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251028</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251028</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251023</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251023</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251023</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251023</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251023</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251023</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251023</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251023</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251023</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251023</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251027</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251027</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251027</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251027</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251027</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251023</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251030</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251022</v>
+        <v>20251101</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>20251020</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>20251020</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>20251020</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>20251020</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>20251020</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251027</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>20251020</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>20251020</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>20251020</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>20251020</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251028</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251027</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251027</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251027</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251027</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251027</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251028</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251024</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251024</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251024</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251024</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251024</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251024</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251024</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251024</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251028</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251027</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251027</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251027</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251027</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251027</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251023</v>
+        <v>20251102</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251030</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20251020</v>
+        <v>20251103</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251028</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251028</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251024</v>
+        <v>20251103</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251028</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251027</v>
+        <v>20251103</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251030</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251026</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251026</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251026</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251103</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251026</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251026</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251026</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251026</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251026</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251026</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251026</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251028</v>
+        <v>20251104</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251103</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251103</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251026</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251103</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251026</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251103</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251103</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251028</v>
+        <v>20251104</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251028</v>
+        <v>20251104</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251103</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251103</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251103</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251103</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251026</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251103</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251030</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251103</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251104</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251103</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251103</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251103</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251103</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251103</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251104</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251104</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251103</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251103</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251103</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251103</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251026</v>
+        <v>20251105</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251103</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251030</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251103</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251104</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251103</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251103</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251103</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251103</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251103</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251104</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251028</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251028</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251028</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251104</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251028</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251028</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251028</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251103</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251103</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251103</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251103</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251103</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251030</v>
+        <v>20251106</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251103</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251029</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251029</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251029</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251029</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251104</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251029</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251029</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251029</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251029</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251029</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251029</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251029</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251029</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251029</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251029</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251029</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251103</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251103</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251029</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251103</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251103</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251029</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251103</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251104</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251028</v>
+        <v>20251107</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251028</v>
+        <v>20251107</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251028</v>
+        <v>20251107</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251104</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251028</v>
+        <v>20251107</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251028</v>
+        <v>20251107</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251028</v>
+        <v>20251107</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251029</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251029</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251029</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251029</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251029</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251103</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251103</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251103</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251103</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251103</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251106</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251103</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251030</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251104</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251103</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251103</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251103</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251103</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251103</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251104</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251104</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251029</v>
+        <v>20251108</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251030</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251030</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251030</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251030</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251030</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251030</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251030</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251103</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251103</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251103</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251103</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251103</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251106</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251030</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251030</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251030</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251030</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251103</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251104</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251103</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251103</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251103</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251103</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251103</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251104</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251104</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251103</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251103</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251103</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251103</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251103</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251106</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251030</v>
+        <v>20251109</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251104</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251104</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251104</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251103</v>
+        <v>20251110</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251106</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251101</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251110</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251104</v>
+        <v>20251111</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251110</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251110</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251110</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251110</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251110</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251104</v>
+        <v>20251111</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251104</v>
+        <v>20251111</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251102</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251102</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251102</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251102</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251102</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251102</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251102</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251102</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251102</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251102</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251110</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251110</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251110</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251110</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251110</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251102</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251106</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251101</v>
+        <v>20251111</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251110</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251111</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251110</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251110</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251110</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251110</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251110</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251111</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251103</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251103</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251103</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251103</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251103</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251103</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251103</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251103</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251111</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251110</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251110</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251110</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251110</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251110</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251102</v>
+        <v>20251112</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251106</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251110</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251111</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251110</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251110</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251110</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251110</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251110</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251111</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251103</v>
+        <v>20251113</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251111</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251110</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251110</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251110</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251110</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251110</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251106</v>
+        <v>20251113</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251105</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251105</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251105</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251110</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251105</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251105</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251105</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251105</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251105</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251105</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251105</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251111</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251110</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251110</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251105</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251110</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251105</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251110</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251110</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251111</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251111</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251110</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251110</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251110</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251110</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251105</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251110</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251113</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251110</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251111</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251110</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251110</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251110</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251110</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251110</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251111</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251111</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251110</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251110</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251110</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251110</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251105</v>
+        <v>20251115</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251110</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251113</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>20251103</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>20251103</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>20251103</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>20251103</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>20251103</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251110</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>20251103</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>20251103</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>20251103</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>20251103</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251111</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251110</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251110</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251110</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251110</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251110</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251111</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251107</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251107</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251107</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251111</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251107</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251107</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251107</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251110</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251110</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251110</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251110</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251110</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251113</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20251103</v>
+        <v>20251117</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251108</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251108</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251108</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251108</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251111</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251108</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251108</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251108</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251108</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251108</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251108</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251108</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251108</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251108</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251108</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251108</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251108</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251108</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251111</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251107</v>
+        <v>20251117</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251107</v>
+        <v>20251117</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251107</v>
+        <v>20251117</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251111</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251107</v>
+        <v>20251117</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251107</v>
+        <v>20251117</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251107</v>
+        <v>20251117</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251108</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251108</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251108</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251108</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251108</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251110</v>
+        <v>20251117</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251113</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251117</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251109</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251111</v>
+        <v>20251118</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251117</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251117</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251117</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251117</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251117</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251111</v>
+        <v>20251118</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251111</v>
+        <v>20251118</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251108</v>
+        <v>20251118</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251109</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251109</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251109</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251109</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251109</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251109</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251109</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251117</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251117</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251117</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251117</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251117</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251113</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251109</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251109</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251109</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251109</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251117</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251118</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251117</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251117</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251117</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251117</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251117</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251118</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251118</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251117</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251117</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251117</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251117</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251117</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251113</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251109</v>
+        <v>20251119</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251117</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251118</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251117</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251117</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251117</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251117</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251117</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251118</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251118</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251117</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251117</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251117</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251117</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251117</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251113</v>
+        <v>20251120</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251111</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251117</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251118</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251117</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251117</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251117</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251117</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251117</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251118</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251118</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251112</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251112</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251112</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251112</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251112</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251112</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251112</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251112</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251112</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251112</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251117</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251117</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251117</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251117</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251117</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251112</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251120</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251111</v>
+        <v>20251121</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251117</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251118</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251117</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251117</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251117</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251117</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251117</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251118</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251113</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251113</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251113</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251113</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251113</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251113</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251113</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251113</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251118</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251117</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251117</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251117</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251117</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251117</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251112</v>
+        <v>20251122</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251120</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251117</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251118</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251117</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251117</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251117</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251117</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251117</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251118</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251113</v>
+        <v>20251123</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251118</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251117</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251117</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251117</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251117</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251117</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251120</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251115</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251115</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251115</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251115</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251115</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251115</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251115</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251115</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251115</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251115</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251118</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251115</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251115</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251118</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251118</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251115</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251117</v>
+        <v>20251124</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251120</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251124</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251118</v>
+        <v>20251125</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251124</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251124</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251124</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251124</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251124</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251118</v>
+        <v>20251125</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251118</v>
+        <v>20251125</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251124</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251124</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251124</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251124</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251115</v>
+        <v>20251125</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251124</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251120</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251124</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251125</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251124</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251124</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251124</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251124</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251124</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251125</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251117</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251117</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251117</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251125</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251117</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251117</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251117</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251124</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251124</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251124</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251124</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251124</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251120</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251124</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251118</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251118</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251118</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251118</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251125</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251118</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251118</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251118</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251118</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251118</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251118</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251118</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251118</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251118</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251118</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251118</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251124</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251124</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251118</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251124</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251124</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251118</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251124</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251125</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251117</v>
+        <v>20251127</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251117</v>
+        <v>20251127</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251117</v>
+        <v>20251127</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251125</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251117</v>
+        <v>20251127</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251117</v>
+        <v>20251127</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251117</v>
+        <v>20251127</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251118</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251118</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251118</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251118</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251118</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251124</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251124</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251124</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251124</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251124</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251120</v>
+        <v>20251127</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251124</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251119</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251125</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251124</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251124</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251124</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251124</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251124</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251125</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251125</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251118</v>
+        <v>20251128</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251119</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251119</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251119</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251119</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251119</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251119</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251119</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251124</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251124</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251124</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251124</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251124</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251127</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251119</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251119</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251119</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251119</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251124</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251125</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251124</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251124</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251124</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251124</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251124</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251125</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251125</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251124</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251124</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251124</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251124</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251124</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251127</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251119</v>
+        <v>20251129</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>20251117</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>20251117</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>20251117</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>20251117</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>20251117</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251124</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>20251117</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>20251117</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>20251117</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>20251117</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251125</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251124</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251124</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251124</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251124</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251124</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251125</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251125</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251124</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251124</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251124</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251124</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251124</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251127</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251121</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20251117</v>
+        <v>20251201</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251125</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251125</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251125</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251122</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251122</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251122</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251122</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251122</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251122</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251122</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251122</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251122</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251122</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251124</v>
+        <v>20251201</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251122</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251127</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251121</v>
+        <v>20251201</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251201</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251125</v>
+        <v>20251202</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251201</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251201</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251201</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251201</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251201</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251125</v>
+        <v>20251202</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251123</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251123</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251123</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251123</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251123</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251123</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251123</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251123</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251125</v>
+        <v>20251202</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251201</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251201</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251201</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251201</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251201</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251122</v>
+        <v>20251202</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251127</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251201</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251202</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251201</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251201</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251201</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251201</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251201</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251202</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251123</v>
+        <v>20251203</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251202</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251201</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251201</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251201</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251201</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251201</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251127</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251125</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251125</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251125</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251201</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251125</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251125</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251125</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251125</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251125</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251125</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251202</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251201</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251201</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251125</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251201</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251125</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251201</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251201</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251202</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251202</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251201</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251201</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251201</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251201</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251125</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251201</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251127</v>
+        <v>20251204</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251201</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251202</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251201</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251201</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251201</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251201</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251201</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251202</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251202</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251201</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251201</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251201</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251201</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251125</v>
+        <v>20251205</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251201</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251204</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251201</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251202</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251201</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251201</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251201</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251201</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251201</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251202</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251127</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251127</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251127</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251202</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251127</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251127</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251127</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251201</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251201</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251201</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251201</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251201</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251204</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251201</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251128</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251128</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251128</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251128</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251202</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251128</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251128</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251128</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251128</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251128</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251128</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251128</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251128</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251128</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251128</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251128</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251201</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251201</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251128</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251201</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251201</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251128</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251201</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251202</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251127</v>
+        <v>20251207</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251127</v>
+        <v>20251207</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251127</v>
+        <v>20251207</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251202</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251127</v>
+        <v>20251207</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251127</v>
+        <v>20251207</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251127</v>
+        <v>20251207</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251128</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251128</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251128</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251128</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251128</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251201</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251201</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251201</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251201</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251201</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251204</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251129</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251202</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251202</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251202</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251128</v>
+        <v>20251208</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251129</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251129</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251129</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251129</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251129</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251129</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251129</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251201</v>
+        <v>20251208</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251204</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251129</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251129</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251129</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251129</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251208</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251202</v>
+        <v>20251209</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251208</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251208</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251208</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251208</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251208</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251202</v>
+        <v>20251209</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251202</v>
+        <v>20251209</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251208</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251208</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251208</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251208</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251208</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251204</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251129</v>
+        <v>20251209</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251208</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251209</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251208</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251208</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251208</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251208</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251208</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251209</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251209</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251208</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251208</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251208</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251208</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251208</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251204</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251201</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251208</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251209</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251208</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251208</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251208</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251208</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251208</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251209</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251209</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251202</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251202</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251202</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251202</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251202</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251202</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251202</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251202</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251202</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251202</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251208</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251208</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251208</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251208</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251208</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251202</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251204</v>
+        <v>20251211</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251201</v>
+        <v>20251211</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251208</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251209</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251208</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251208</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251208</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251208</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251208</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251209</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251203</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251203</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251203</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251203</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251203</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251203</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251203</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251203</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251209</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251208</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251208</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251208</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251208</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251208</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251202</v>
+        <v>20251212</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251211</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251208</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251209</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251208</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251208</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251208</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251208</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251208</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251209</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251203</v>
+        <v>20251213</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251209</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251208</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251208</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251208</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251208</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251208</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251211</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>20251201</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>20251201</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>20251201</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251205</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>20251201</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251205</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>20251201</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251205</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251208</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>20251201</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251205</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>20251201</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>20251201</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>20251201</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251205</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251205</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251205</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251205</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251205</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251205</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251209</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251208</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251208</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251205</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251208</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251205</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251208</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251208</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251209</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251209</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251208</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251208</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251208</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251208</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251205</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251208</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251211</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20251201</v>
+        <v>20251215</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251209</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251209</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251209</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251205</v>
+        <v>20251215</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251208</v>
+        <v>20251215</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251211</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251215</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251209</v>
+        <v>20251216</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251215</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251215</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251215</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251215</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251215</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251209</v>
+        <v>20251216</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251207</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251207</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251207</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251209</v>
+        <v>20251216</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251207</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251207</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251207</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251215</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251215</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251215</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251215</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251215</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251211</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251215</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251208</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251208</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251208</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251208</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251216</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251208</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251208</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251208</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251208</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251208</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251208</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251208</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251208</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251208</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251208</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251208</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251215</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251215</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251208</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251215</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251215</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251208</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251215</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251216</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251207</v>
+        <v>20251217</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251207</v>
+        <v>20251217</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251207</v>
+        <v>20251217</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251216</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251207</v>
+        <v>20251217</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251207</v>
+        <v>20251217</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251207</v>
+        <v>20251217</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251208</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251208</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251208</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251208</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251208</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251215</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251215</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251215</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251215</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251215</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251211</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251215</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251209</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251216</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251215</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251215</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251215</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251215</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251215</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251216</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251216</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251208</v>
+        <v>20251218</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251209</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251209</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251209</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251209</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251209</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251209</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251209</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251215</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251215</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251215</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251215</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251215</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251211</v>
+        <v>20251218</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251209</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251209</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251209</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251209</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251215</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251216</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251215</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251215</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251215</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251215</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251215</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251216</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251216</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251215</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251215</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251215</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251215</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251215</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251218</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251209</v>
+        <v>20251219</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251215</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251216</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251215</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251215</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251215</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251215</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251215</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251216</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251216</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251215</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251215</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251215</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251215</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251215</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251218</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251211</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251215</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251216</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251215</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251215</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251215</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251215</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251215</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251216</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251216</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251212</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251212</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251212</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251212</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251212</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251212</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251212</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251212</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251212</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251212</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251215</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251215</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251215</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251215</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251215</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251212</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251218</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251211</v>
+        <v>20251221</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251216</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251216</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251213</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251213</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251213</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251213</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251213</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251213</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251213</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251213</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251216</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251215</v>
+        <v>20251222</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251212</v>
+        <v>20251222</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251218</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251222</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251216</v>
+        <v>20251223</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251222</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251222</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251222</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251222</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251222</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251216</v>
+        <v>20251223</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251213</v>
+        <v>20251223</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251216</v>
+        <v>20251223</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251222</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251222</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251222</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251222</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251222</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251218</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251215</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251215</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251215</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251222</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251215</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251215</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251215</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251215</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251215</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251215</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251215</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251223</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251222</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251222</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251215</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251222</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251215</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251222</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251222</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251223</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251223</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251222</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251222</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251222</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251222</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251215</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251222</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251218</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251222</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251223</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251222</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251222</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251222</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251222</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251222</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251223</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251223</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251222</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251222</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251222</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251222</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251215</v>
+        <v>20251225</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251222</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251218</v>
+        <v>20251225</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251222</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251223</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251222</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251222</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251222</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251222</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251222</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251223</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251217</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251217</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251217</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251223</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251217</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251217</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251217</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251222</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251222</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251222</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251222</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251222</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20251225</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251222</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251218</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251218</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251218</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251218</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251223</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251218</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251218</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251218</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251218</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251218</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251218</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251218</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251218</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251218</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251218</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251218</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251222</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251222</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251218</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251222</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251222</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251218</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251222</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251223</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251217</v>
+        <v>20251227</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251217</v>
+        <v>20251227</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251217</v>
+        <v>20251227</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251223</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251217</v>
+        <v>20251227</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251217</v>
+        <v>20251227</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251217</v>
+        <v>20251227</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251218</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251218</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251218</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251218</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251218</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251222</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251222</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251222</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251222</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251222</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20251225</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>20251215</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>20251215</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>20251215</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>20251215</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>20251215</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251222</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>20251215</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>20251215</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>20251215</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>20251215</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251219</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251223</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251222</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251222</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251222</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251222</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251222</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251223</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251223</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251218</v>
+        <v>20251228</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251219</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251219</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251219</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251219</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251219</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251219</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251219</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251222</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251222</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251222</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251222</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251222</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20251225</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251219</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251219</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251219</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251219</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20251215</v>
+        <v>20251229</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251223</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251223</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251223</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251222</v>
+        <v>20251229</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20251225</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251219</v>
+        <v>20251229</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20251229</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251223</v>
+        <v>20251230</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20251229</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20251229</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20251229</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20251229</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20251229</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251223</v>
+        <v>20251230</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251223</v>
+        <v>20251230</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20251229</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20251229</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20251229</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20251229</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20251229</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20251225</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251221</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20251229</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20251230</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20251229</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20251229</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20251229</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20251229</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20251229</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20251230</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20251230</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20251222</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20251222</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20251222</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20251222</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20251222</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20251222</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20251222</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20251222</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20251222</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20251222</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20251229</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20251229</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20251229</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20251229</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20251229</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20251222</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20251225</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251221</v>
+        <v>20251231</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20251229</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20251230</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20251229</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20251229</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20251229</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20251229</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20251229</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20251230</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20251223</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20251223</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20251223</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20251223</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20251223</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20251223</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20251223</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20251223</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20251230</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20251229</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20251229</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20251229</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20251229</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20251229</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20251222</v>
+        <v>20260101</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20251225</v>
+        <v>20260101</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20251229</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20251230</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20251229</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20251229</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20251229</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20251229</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20251229</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20251230</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20251223</v>
+        <v>20260102</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20251230</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20251229</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20251229</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20251229</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20251229</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20251229</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20260101</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20251225</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20251225</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20251225</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20251229</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20251225</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20251225</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20251225</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20251225</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20251225</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20251225</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20251225</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20251230</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20251229</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20251229</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20251225</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20251229</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20251225</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20251229</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20251229</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20251230</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20251230</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20251229</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20251229</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20251229</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20251229</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20251225</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20251229</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20260101</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20251229</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20251230</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20251229</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20251229</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20251229</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20251229</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20251229</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20251230</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20251230</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20251229</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20251229</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20251229</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20251229</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20251225</v>
+        <v>20260104</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20251229</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20260101</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20251230</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20251230</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20251227</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20251227</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20251227</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20251230</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20251227</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20251227</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20251227</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20251229</v>
+        <v>20260105</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20260101</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20260105</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20251228</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20251228</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20251228</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20251228</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20251230</v>
+        <v>20260106</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20251228</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20251228</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20251228</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20251228</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20251228</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20251228</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20251228</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20251228</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20251228</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20251228</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20251228</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20260105</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20260105</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20251228</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20260105</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20260105</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20251228</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20260105</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20251230</v>
+        <v>20260106</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20251227</v>
+        <v>20260106</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20251227</v>
+        <v>20260106</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20251227</v>
+        <v>20260106</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20251230</v>
+        <v>20260106</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20251227</v>
+        <v>20260106</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20251227</v>
+        <v>20260106</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20251227</v>
+        <v>20260106</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20251228</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20251228</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20251228</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20251228</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20251228</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20260105</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20260105</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20260105</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20260105</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20260105</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20260101</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20260105</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20251229</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20260106</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20260105</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20260105</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20260105</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20260105</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20260105</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20260106</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20260106</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20251228</v>
+        <v>20260107</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20251229</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20251229</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20251229</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20251229</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20251229</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20251229</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20251229</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20260105</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20260105</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20260105</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20260105</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20260105</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20260101</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20251229</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20251229</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20251229</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20251229</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20260105</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20260106</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20260105</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20260105</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20260105</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20260105</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20260105</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20260106</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20260106</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20260105</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20260105</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20260105</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20260105</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20260105</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20260101</v>
+        <v>20260108</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20251229</v>
+        <v>20260108</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20260105</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20260106</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20260105</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20260105</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20260105</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20260105</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20260105</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20260106</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20260106</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20260105</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20260105</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20260105</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20260105</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20260105</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20260108</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20251231</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20260105</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20260106</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20260105</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20260105</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20260105</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20260105</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20260105</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20260106</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20260106</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>20260101</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>20260101</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>20260101</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>20260101</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>20260101</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>20260101</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>20260101</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>20260101</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>20260101</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>20260101</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20260105</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20260105</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20260105</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20260105</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20260105</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>20260101</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20260108</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>20251231</v>
+        <v>20260110</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>20251229</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>20251229</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>20251229</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>20251229</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>20251229</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20260105</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>20251229</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>20251229</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>20251229</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>20251229</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20260106</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20260105</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20260105</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20260105</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20260105</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20260105</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20260106</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>20260102</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>20260102</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>20260102</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>20260102</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>20260102</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>20260102</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>20260102</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>20260102</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20260106</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3146,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20260105</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20260105</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20260105</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20260105</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20260105</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20260101</v>
+        <v>20260111</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20260108</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20251229</v>
+        <v>20260112</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20260106</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20260106</v>
@@ -2030,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>20260102</v>
+        <v>20260112</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20260106</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20260105</v>
+        <v>20260112</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20260108</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>20260104</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>20260104</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>20260104</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20260112</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>20260104</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>20260104</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>20260104</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>20260104</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>20260104</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>20260104</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>20260104</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20260106</v>
+        <v>20260113</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20260112</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20260112</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>20260104</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>20260112</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>20260104</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>20260112</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>20260112</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>20260106</v>
+        <v>20260113</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>20260112</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>20260112</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
         <v>20260112</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>20260112</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
         <v>20260112</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>20260112</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>20260112</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>20260112</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>20260106</v>
+        <v>20260113</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>20260112</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>20260112</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>20260112</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>20260112</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>20260104</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>20260112</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>20260108</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>20260112</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>20260113</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>20260112</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>20260112</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>20260112</v>
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>20260112</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
         <v>20260112</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>20260113</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>20260112</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>20260112</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
         <v>20260112</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
         <v>20260112</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>20260112</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>20260112</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
         <v>20260112</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>20260112</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>20260113</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>20260112</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>20260112</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
         <v>20260112</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>20260112</v>
@@ -3301,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>20260104</v>
+        <v>20260114</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
         <v>20260112</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>20260108</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20260114</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>20260114</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>20260114</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>20260112</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>20260114</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>20260114</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>20260114</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20260114</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>20260114</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>20260114</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>20260114</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>20260113</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>20260112</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>20260112</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>20260114</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>20260112</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
         <v>20260114</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>20260112</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>20260112</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>20260113</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
         <v>20260112</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>20260112</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>20260112</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>20260112</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
         <v>20260112</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
         <v>20260112</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
         <v>20260112</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
         <v>20260112</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>20260106</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>20260106</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>20260106</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>20260113</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>20260106</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>20260106</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>20260106</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>20260112</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>20260112</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>20260112</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>20260112</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>20260114</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
         <v>20260112</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>20260108</v>
+        <v>20260115</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>20260114</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>20260114</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>20260114</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>20260112</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>20260114</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>20260114</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>20260107</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>20260107</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>20260107</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20260107</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>20260114</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20260114</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>20260114</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>20260114</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>20260114</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>20260113</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>20260107</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>20260107</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>20260107</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>20260107</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>20260107</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>20260107</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>20260107</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>20260107</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>20260107</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>20260107</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>20260107</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>20260112</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20260112</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>20260107</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>20260114</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>20260112</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
         <v>20260114</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>20260112</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>20260107</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>20260112</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>20260113</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>20260112</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>20260112</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>20260112</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>20260112</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>20260112</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>20260112</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>20260112</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>20260112</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>20260106</v>
+        <v>20260116</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2309,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>20260106</v>
+        <v>20260116</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>20260106</v>
+        <v>20260116</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
         <v>20260113</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>20260106</v>
+        <v>20260116</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>20260106</v>
+        <v>20260116</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>20260106</v>
+        <v>20260116</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>20260107</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>20260107</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>20260107</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>20260107</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>20260107</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>20260112</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>20260112</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>20260112</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>20260112</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
         <v>20260114</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>20260112</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>20260115</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>20260114</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>20260114</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>20260114</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>20260112</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>20260114</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>20260108</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>20260114</v>
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>20260114</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>20260114</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>20260114</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>20260114</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>20260114</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>20260113</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1491,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>20260112</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>20260112</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>20260114</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>20260112</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>20260114</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>20260112</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>20260112</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>20260113</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>20260112</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>20260112</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
         <v>20260112</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
         <v>20260112</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>20260112</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>20260112</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>20260112</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>20260112</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>20260116</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
         <v>20260116</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
         <v>20260116</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20260113</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>20260116</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>20260116</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>20260116</v>
@@ -2495,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>20260107</v>
+        <v>20260117</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>20260108</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>20260108</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>20260108</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>20260108</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>20260108</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>20260108</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>20260108</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>20260112</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>20260112</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>20260112</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>20260112</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>20260114</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>20260112</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
         <v>20260115</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>20260108</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>20260108</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>20260108</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>20260108</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>20260114</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>20260114</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>20260114</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>20260112</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>20260114</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>20260114</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>20260117</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>20260117</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>20260117</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>20260117</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>20260114</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>20260114</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>20260114</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>20260114</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>20260114</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>20260113</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>20260117</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>20260117</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>20260117</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>20260117</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>20260117</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
         <v>20260117</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>20260117</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>20260117</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
         <v>20260117</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
         <v>20260117</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
         <v>20260117</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>20260112</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>20260112</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>20260117</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>20260114</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>20260112</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>20260114</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>20260112</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
         <v>20260117</v>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>20260112</v>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>20260113</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>20260112</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>20260112</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>20260112</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>20260112</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>20260112</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>20260112</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>20260112</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>20260112</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>20260116</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>20260116</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>20260116</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>20260113</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>20260116</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>20260116</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>20260116</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>20260117</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
         <v>20260117</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>20260117</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>20260117</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>20260117</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>20260112</v>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>20260112</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>20260112</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>20260112</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>20260114</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>20260112</v>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>20260115</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>20260108</v>
+        <v>20260118</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>20260114</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>20260114</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>20260114</v>
@@ -762,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>20260114</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>20260118</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>20260114</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>20260117</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>20260117</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>20260117</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20260117</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>20260114</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>20260114</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>20260114</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>20260114</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>20260114</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>20260113</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>20260117</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>20260117</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>20260117</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>20260117</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>20260117</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>20260117</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>20260117</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>20260117</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>20260117</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>20260117</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>20260117</v>
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
         <v>20260117</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>20260114</v>
@@ -1840,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>20260114</v>
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>20260117</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>20260113</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>20260112</v>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>20260112</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>20260112</v>
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>20260112</v>
@@ -2154,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>20260112</v>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>20260112</v>
@@ -2216,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>20260112</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>20260112</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>20260116</v>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>20260116</v>
@@ -2340,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>20260116</v>
@@ -2371,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>20260113</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>20260116</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
         <v>20260116</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>20260116</v>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
         <v>20260117</v>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>20260117</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>20260117</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>20260117</v>
@@ -2619,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
         <v>20260117</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>20260118</v>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>20260118</v>
@@ -2712,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>20260118</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>20260118</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>20260118</v>
@@ -2805,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>20260118</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>20260118</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>20260111</v>
@@ -2898,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>20260111</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>20260111</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>20260111</v>
@@ -2991,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>20260111</v>
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>20260111</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>20260111</v>
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>20260111</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>20260111</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>20260111</v>
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3208,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3270,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>20260114</v>
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>20260112</v>
+        <v>20260119</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>20260111</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>20260115</v>
@@ -3425,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>20260110</v>
@@ -3456,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>20260118</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
         <v>20260118</v>
@@ -3518,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>20260118</v>
@@ -3549,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
         <v>20260118</v>

--- a/yxc.xlsx
+++ b/yxc.xlsx
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>20260112</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>20260112</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>20260112</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>20260114</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>20260112</v>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>20260114</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>20260112</v>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>20260114</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>20260119</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>20260112</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>20260114</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>20260112</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>20260112</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>20260112</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>20260118</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>20260114</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>20260117</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>20260117</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>20260117</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>20260117</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>20260114</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>20260114</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>20260114</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>20260114</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>20260114</v>
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>20260113</v>
+        <v>20260120</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>20260117</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>20260117</v>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>20260117</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>20260117</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>20260117</v>
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>20260117</v>
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>20260117</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
         <v>20260117</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>20260117</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>20260117</v>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>20260117</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>20260119</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>20260119</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
   